--- a/Prueba/DM/Med_dm_4.xlsx
+++ b/Prueba/DM/Med_dm_4.xlsx
@@ -1,24 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nataly\Documents\Trabajo-de-grado_Artefactos\Prueba\DM\si\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$142</definedName>
-  </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -34,8 +25,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,19 +89,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -152,7 +135,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,10 +167,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,7 +201,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -395,16 +376,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I142"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -420,20 +399,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>140</v>
-      </c>
-      <c r="H2">
-        <v>23</v>
-      </c>
-      <c r="I2">
-        <f>G2-H2</f>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -441,10 +410,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -455,7 +424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -466,7 +435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -474,10 +443,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -488,7 +457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -499,7 +468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -510,7 +479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -521,7 +490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -532,7 +501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -540,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -551,10 +520,10 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -562,10 +531,10 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -576,7 +545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -587,7 +556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -595,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -606,10 +575,10 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -620,7 +589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -628,10 +597,10 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -639,10 +608,10 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -653,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -661,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -672,10 +641,10 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -686,7 +655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -694,10 +663,10 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -705,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -719,7 +688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -730,7 +699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -741,7 +710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -749,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -760,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -774,7 +743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -782,10 +751,10 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -793,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -804,10 +773,10 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -815,10 +784,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -826,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -837,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -848,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -859,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -870,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -881,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -895,7 +864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -903,10 +872,10 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -914,10 +883,10 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -925,10 +894,10 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -936,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -947,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -958,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -969,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -980,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -991,10 +960,10 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1002,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1013,10 +982,10 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1024,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1035,10 +1004,10 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1046,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1057,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1071,7 +1040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1079,10 +1048,10 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1090,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1101,10 +1070,10 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1115,7 +1084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1123,10 +1092,10 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1137,7 +1106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1145,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1159,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1167,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1178,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1189,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1200,10 +1169,10 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1211,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1222,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1236,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1244,10 +1213,10 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1255,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1269,7 +1238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1277,10 +1246,10 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1288,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1299,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1310,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1324,7 +1293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1332,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -1346,7 +1315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -1357,7 +1326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -1365,10 +1334,10 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -1376,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -1390,7 +1359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -1398,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -1409,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -1420,10 +1389,10 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -1434,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -1442,10 +1411,10 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -1456,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -1464,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -1478,7 +1447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -1486,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -1500,7 +1469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -1508,10 +1477,10 @@
         <v>0</v>
       </c>
       <c r="C100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -1519,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="C101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -1530,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="C102">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -1544,7 +1513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -1552,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="C104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -1563,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -1577,7 +1546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -1588,7 +1557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -1596,10 +1565,10 @@
         <v>0</v>
       </c>
       <c r="C108">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -1610,7 +1579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -1618,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -1632,7 +1601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -1640,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -1651,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="C113">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -1662,10 +1631,10 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -1676,7 +1645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -1684,10 +1653,10 @@
         <v>0</v>
       </c>
       <c r="C116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -1695,10 +1664,10 @@
         <v>0</v>
       </c>
       <c r="C117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -1706,10 +1675,10 @@
         <v>0</v>
       </c>
       <c r="C118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -1717,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="C119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -1728,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="C120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -1742,7 +1711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -1753,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -1761,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="C123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -1772,10 +1741,10 @@
         <v>0</v>
       </c>
       <c r="C124">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -1783,10 +1752,10 @@
         <v>0</v>
       </c>
       <c r="C125">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -1794,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="C126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -1805,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="C127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -1816,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="C128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -1827,10 +1796,10 @@
         <v>0</v>
       </c>
       <c r="C129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -1838,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="C130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -1852,7 +1821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -1860,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="C132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -1871,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="C133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -1885,7 +1854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -1893,10 +1862,10 @@
         <v>0</v>
       </c>
       <c r="C135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -1904,10 +1873,10 @@
         <v>0</v>
       </c>
       <c r="C136">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -1918,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -1926,10 +1895,10 @@
         <v>0</v>
       </c>
       <c r="C138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -1940,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -1948,10 +1917,10 @@
         <v>0</v>
       </c>
       <c r="C140">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -1962,7 +1931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -1970,137 +1939,733 @@
         <v>0</v>
       </c>
       <c r="C142">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:A23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
